--- a/data/Patient.xlsx
+++ b/data/Patient.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://merced-my.sharepoint.com/personal/ypalaciosguzman_ucmerced_edu/Documents/Fall21/Hospital_Management_System/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49120E9A-8BD3-4476-933E-57404F938095}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8E3E7C-9324-4CB2-890D-24924410A42D}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1830" windowWidth="27075" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27150" yWindow="1740" windowWidth="25230" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>p_id</t>
   </si>
@@ -156,21 +156,6 @@
     <t>5cb774c2-47e2-4c90-a0db-1531784d029d</t>
   </si>
   <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Alfonso</t>
-  </si>
-  <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
-    <t>Alonzo</t>
-  </si>
-  <si>
-    <t>Amari</t>
-  </si>
-  <si>
     <t>7520 Sycamore St. Pottstown, PA 19464</t>
   </si>
   <si>
@@ -201,21 +186,6 @@
     <t>63 Orange St. Montclair, NJ 07042</t>
   </si>
   <si>
-    <t>Palessandro</t>
-  </si>
-  <si>
-    <t>Zalonso</t>
-  </si>
-  <si>
-    <t>Balvaro</t>
-  </si>
-  <si>
-    <t>Jandre</t>
-  </si>
-  <si>
-    <t>Fandres</t>
-  </si>
-  <si>
     <t>r_id</t>
   </si>
   <si>
@@ -232,6 +202,48 @@
   </si>
   <si>
     <t>beff7360-a185-4468-8af0-e545bc666770</t>
+  </si>
+  <si>
+    <t>35d655f3-f0b0-46af-9d5f-9537ff71654e</t>
+  </si>
+  <si>
+    <t>b097f866-cc21-487f-86fe-2b7901c15c1a</t>
+  </si>
+  <si>
+    <t>327d61aa-bf80-4920-8604-dca597300e2c</t>
+  </si>
+  <si>
+    <t>9c5d1d6a-65e7-40a8-801a-1ce53cee3b23</t>
+  </si>
+  <si>
+    <t>Alejandro Hernandez</t>
+  </si>
+  <si>
+    <t>Palessandro Santo</t>
+  </si>
+  <si>
+    <t>Alfonso James</t>
+  </si>
+  <si>
+    <t>Alfredo Palo</t>
+  </si>
+  <si>
+    <t>Zalonso Alto</t>
+  </si>
+  <si>
+    <t>Alonzo Guzman</t>
+  </si>
+  <si>
+    <t>Balvaro Lima</t>
+  </si>
+  <si>
+    <t>Amari Mari</t>
+  </si>
+  <si>
+    <t>Jandre Piviral</t>
+  </si>
+  <si>
+    <t>Fandres Unknown</t>
   </si>
 </sst>
 </file>
@@ -571,7 +583,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
         <v>21</v>
@@ -639,13 +651,13 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>9087588458</v>
@@ -672,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>6683782593</v>
@@ -705,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I4">
         <v>6779087266</v>
@@ -740,12 +752,14 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
       <c r="I5">
         <v>8265510506</v>
       </c>
@@ -771,13 +785,13 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <v>7626185466</v>
@@ -806,12 +820,14 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
       <c r="I7">
         <v>6716439668</v>
       </c>
@@ -837,10 +853,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
@@ -872,12 +888,14 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
       <c r="I9">
         <v>7044238709</v>
       </c>
@@ -905,12 +923,14 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
       <c r="I10">
         <v>6369897363</v>
       </c>
@@ -936,13 +956,13 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I11">
         <v>7166832837</v>

--- a/data/Patient.xlsx
+++ b/data/Patient.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA8E3E7C-9324-4CB2-890D-24924410A42D}"/>
   <bookViews>
-    <workbookView xWindow="-27150" yWindow="1740" windowWidth="25230" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
